--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N2">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q2">
-        <v>302.7913984940321</v>
+        <v>419.1765558526057</v>
       </c>
       <c r="R2">
-        <v>302.7913984940321</v>
+        <v>3772.589002673451</v>
       </c>
       <c r="S2">
-        <v>0.3373003212733703</v>
+        <v>0.3634205198242639</v>
       </c>
       <c r="T2">
-        <v>0.3373003212733703</v>
+        <v>0.3634205198242639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N3">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q3">
-        <v>380.1466070259128</v>
+        <v>517.4957902487544</v>
       </c>
       <c r="R3">
-        <v>380.1466070259128</v>
+        <v>4657.462112238789</v>
       </c>
       <c r="S3">
-        <v>0.423471648529505</v>
+        <v>0.4486619933133874</v>
       </c>
       <c r="T3">
-        <v>0.423471648529505</v>
+        <v>0.4486619933133874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H4">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I4">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J4">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N4">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q4">
-        <v>70.9053402712583</v>
+        <v>72.24934076458091</v>
       </c>
       <c r="R4">
-        <v>70.9053402712583</v>
+        <v>650.2440668812282</v>
       </c>
       <c r="S4">
-        <v>0.07898637204505812</v>
+        <v>0.06263922113730291</v>
       </c>
       <c r="T4">
-        <v>0.07898637204505812</v>
+        <v>0.06263922113730291</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N5">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q5">
-        <v>89.01978278840679</v>
+        <v>89.19566032949913</v>
       </c>
       <c r="R5">
-        <v>89.01978278840679</v>
+        <v>802.7609429654921</v>
       </c>
       <c r="S5">
-        <v>0.09916530483876036</v>
+        <v>0.07733145566092503</v>
       </c>
       <c r="T5">
-        <v>0.09916530483876036</v>
+        <v>0.07733145566092503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H6">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I6">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J6">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N6">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q6">
-        <v>24.30872215158426</v>
+        <v>24.74893669258267</v>
       </c>
       <c r="R6">
-        <v>24.30872215158426</v>
+        <v>222.740430233244</v>
       </c>
       <c r="S6">
-        <v>0.02707917012258218</v>
+        <v>0.02145700018843333</v>
       </c>
       <c r="T6">
-        <v>0.02707917012258218</v>
+        <v>0.02145700018843332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H7">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I7">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J7">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q7">
-        <v>30.5189589037898</v>
+        <v>30.55388087125734</v>
       </c>
       <c r="R7">
-        <v>30.5189589037898</v>
+        <v>274.984927841316</v>
       </c>
       <c r="S7">
-        <v>0.0339971831907239</v>
+        <v>0.02648980987568737</v>
       </c>
       <c r="T7">
-        <v>0.0339971831907239</v>
+        <v>0.02648980987568737</v>
       </c>
     </row>
   </sheetData>
